--- a/public/static/admin/摄像头安装申请模板.xlsx
+++ b/public/static/admin/摄像头安装申请模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>摄像头名称（最好能体现出具体的地方）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>所属子公司/代理商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,47 +58,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>北京-房山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sasdfafweqweafasfasf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>safadfa65446694949</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈尔滨分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津市第一幼儿园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商/分公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市房山区彩虹幼儿园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京-房山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sasdfafweqweafasfasf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>safadfa65446694949</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈尔滨分公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京-房山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哈尔滨分公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -449,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -491,62 +471,36 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
